--- a/doc/comparison.xlsx
+++ b/doc/comparison.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="18960" windowHeight="11325" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="15" windowWidth="18960" windowHeight="11325" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="76">
   <si>
     <r>
       <rPr>
@@ -568,6 +569,60 @@
   </si>
   <si>
     <t>0.015</t>
+  </si>
+  <si>
+    <t>Link ranking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Complete clustering </t>
+  </si>
+  <si>
+    <t>MS Char</t>
+  </si>
+  <si>
+    <t>MS Word</t>
+  </si>
+  <si>
+    <t>KM Char</t>
+  </si>
+  <si>
+    <t>KM Word</t>
+  </si>
+  <si>
+    <t>Runtime (s)</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>0.696</t>
+  </si>
+  <si>
+    <t>0.065</t>
+  </si>
+  <si>
+    <t>0.008</t>
+  </si>
+  <si>
+    <t>0.034</t>
+  </si>
+  <si>
+    <t>0.732</t>
+  </si>
+  <si>
+    <t>0.676</t>
+  </si>
+  <si>
+    <t>Baseline</t>
+  </si>
+  <si>
+    <t>0.811</t>
+  </si>
+  <si>
+    <t>0.697</t>
   </si>
 </sst>
 </file>
@@ -578,7 +633,7 @@
     <numFmt numFmtId="164" formatCode="#,##0,000;#,##0,000"/>
     <numFmt numFmtId="165" formatCode="#,##0;#,##0"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -680,6 +735,42 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -689,7 +780,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -726,11 +817,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -836,22 +947,52 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1161,7 +1302,7 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="B7" sqref="B7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1567,7 +1708,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="36" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1965,7 +2106,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1983,7 +2126,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="36" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1991,14 +2134,14 @@
       <c r="A2" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="36"/>
+      <c r="E2" s="40"/>
       <c r="F2" s="20" t="s">
         <v>30</v>
       </c>
@@ -2025,14 +2168,14 @@
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="41">
         <v>169</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35">
+      <c r="C3" s="41"/>
+      <c r="D3" s="41">
         <v>174</v>
       </c>
-      <c r="E3" s="35"/>
+      <c r="E3" s="41"/>
       <c r="F3" s="6">
         <v>163</v>
       </c>
@@ -2059,14 +2202,14 @@
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="38">
+      <c r="B4" s="37">
         <v>115</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38">
+      <c r="C4" s="37"/>
+      <c r="D4" s="37">
         <v>119</v>
       </c>
-      <c r="E4" s="38"/>
+      <c r="E4" s="37"/>
       <c r="F4" s="9">
         <v>110</v>
       </c>
@@ -2093,14 +2236,14 @@
       <c r="A5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5" s="39">
         <v>60</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37">
+      <c r="C5" s="39"/>
+      <c r="D5" s="39">
         <v>63</v>
       </c>
-      <c r="E5" s="37"/>
+      <c r="E5" s="39"/>
       <c r="F5" s="15">
         <v>57</v>
       </c>
@@ -2127,14 +2270,14 @@
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="38">
+      <c r="B6" s="37">
         <v>54</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38">
+      <c r="C6" s="37"/>
+      <c r="D6" s="37">
         <v>47</v>
       </c>
-      <c r="E6" s="38"/>
+      <c r="E6" s="37"/>
       <c r="F6" s="9">
         <v>61</v>
       </c>
@@ -2161,14 +2304,14 @@
       <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="37">
         <v>40</v>
       </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38">
+      <c r="C7" s="37"/>
+      <c r="D7" s="37">
         <v>33</v>
       </c>
-      <c r="E7" s="38"/>
+      <c r="E7" s="37"/>
       <c r="F7" s="9">
         <v>47</v>
       </c>
@@ -2229,14 +2372,14 @@
       <c r="A9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="38">
+      <c r="B9" s="37">
         <v>12</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38">
+      <c r="C9" s="37"/>
+      <c r="D9" s="37">
         <v>10</v>
       </c>
-      <c r="E9" s="38"/>
+      <c r="E9" s="37"/>
       <c r="F9" s="9">
         <v>14</v>
       </c>
@@ -2263,14 +2406,14 @@
       <c r="A10" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="38">
+      <c r="B10" s="37">
         <v>9</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38">
+      <c r="C10" s="37"/>
+      <c r="D10" s="37">
         <v>13</v>
       </c>
-      <c r="E10" s="38"/>
+      <c r="E10" s="37"/>
       <c r="F10" s="9">
         <v>4</v>
       </c>
@@ -2297,14 +2440,14 @@
       <c r="A11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="38">
+      <c r="B11" s="37">
         <v>3</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38">
+      <c r="C11" s="37"/>
+      <c r="D11" s="37">
         <v>2</v>
       </c>
-      <c r="E11" s="38"/>
+      <c r="E11" s="37"/>
       <c r="F11" s="9">
         <v>4</v>
       </c>
@@ -2331,14 +2474,14 @@
       <c r="A12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="37">
+      <c r="B12" s="39">
         <v>2</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37">
+      <c r="C12" s="39"/>
+      <c r="D12" s="39">
         <v>2</v>
       </c>
-      <c r="E12" s="37"/>
+      <c r="E12" s="39"/>
       <c r="F12" s="15">
         <v>1</v>
       </c>
@@ -2365,14 +2508,14 @@
       <c r="A13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="39">
+      <c r="B13" s="38">
         <v>1</v>
       </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39">
+      <c r="C13" s="38"/>
+      <c r="D13" s="38">
         <v>2</v>
       </c>
-      <c r="E13" s="39"/>
+      <c r="E13" s="38"/>
       <c r="F13" s="12">
         <v>1</v>
       </c>
@@ -2397,6 +2540,20 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="B10:C10"/>
@@ -2405,21 +2562,175 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="0.83203125" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="46">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="46">
+        <v>1</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="46">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="46">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="48">
+        <v>1</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="48">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="50">
+        <v>1</v>
+      </c>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50">
+        <v>0</v>
+      </c>
+      <c r="G7" s="50">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>